--- a/Projeto2/docs/testes.xlsx
+++ b/Projeto2/docs/testes.xlsx
@@ -232,9 +232,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -263,6 +260,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6627,13 +6627,13 @@
   <dimension ref="B2:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="J8" sqref="B3:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.21875" bestFit="1" customWidth="1"/>
@@ -6644,201 +6644,201 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="12">
         <v>10</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="12">
         <v>5</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B3" s="4"/>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>3.347</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>1.718</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>18.071999999999999</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>18.707999999999998</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <v>49.706000000000003</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="6">
         <v>2.8769999999999998</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="6">
         <v>16.059999999999999</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="6">
         <v>21.57</v>
       </c>
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>3.5329999999999999</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>5.125</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>18.716999999999999</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>18.382999999999999</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <v>21.699000000000002</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="6">
         <v>3.121</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="6">
         <v>19.539000000000001</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="6">
         <v>20.85</v>
       </c>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>3.2229999999999999</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>2.9969999999999999</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>73.378</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <v>17.606999999999999</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <v>56.771999999999998</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <v>2.9319999999999999</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="6">
         <v>16.652000000000001</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="6">
         <v>27.013999999999999</v>
       </c>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>3.4089999999999998</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>4.6550000000000002</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <v>28.248999999999999</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <v>30.042000000000002</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <v>71.760999999999996</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="6">
         <v>2.9569999999999999</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="6">
         <v>28.405000000000001</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="6">
         <v>25.004000000000001</v>
       </c>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>3.5339999999999998</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>5.056</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>28.257000000000001</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>23.818000000000001</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <v>69.325000000000003</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <v>3.25</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="6">
         <v>25.992000000000001</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="6">
         <v>25.295000000000002</v>
       </c>
       <c r="K8" s="1"/>
@@ -6854,347 +6854,347 @@
       <c r="J9" s="1"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="13">
         <v>3</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="11">
+      <c r="B13" s="10">
         <v>3</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="8">
         <v>2E-3</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>2</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>78</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="11">
+      <c r="B14" s="10">
         <v>5</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>20</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <v>186</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="11">
+      <c r="B15" s="10">
         <v>7</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="8">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>148</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>342</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="11">
+      <c r="B16" s="10">
         <v>9</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="8">
         <v>0.11799999999999999</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>512</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <v>546</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="11">
+      <c r="B17" s="10">
         <v>11</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="8">
         <v>0.497</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>2869</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>798</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="11">
+      <c r="B18" s="10">
         <v>13</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="8">
         <v>6.08</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>54511</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <v>1098</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="11">
+      <c r="B19" s="10">
         <v>15</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="8">
         <v>24.4</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>311614</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <v>1446</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C40" s="14">
+      <c r="C40" s="13">
         <v>10</v>
       </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F41" s="11" t="s">
+      <c r="F41" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B42" s="11">
+      <c r="B42" s="10">
         <v>1</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="6">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="4">
         <v>9</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="4">
         <v>468</v>
       </c>
-      <c r="F42" s="10" t="s">
+      <c r="F42" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B43" s="11">
+      <c r="B43" s="10">
         <v>2</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="6">
         <v>0.192</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="4">
         <v>1300</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="4">
         <v>666</v>
       </c>
-      <c r="F43" s="10" t="s">
+      <c r="F43" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B44" s="11">
+      <c r="B44" s="10">
         <v>3</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="6">
         <v>0.26400000000000001</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="4">
         <v>1723</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44" s="4">
         <v>666</v>
       </c>
-      <c r="F44" s="10" t="s">
+      <c r="F44" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B45" s="11">
+      <c r="B45" s="10">
         <v>4</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="6">
         <v>0.57999999999999996</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="4">
         <v>2696</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E45" s="4">
         <v>666</v>
       </c>
-      <c r="F45" s="10" t="s">
+      <c r="F45" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B46" s="11">
+      <c r="B46" s="10">
         <v>5</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="6">
         <v>1.6180000000000001</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="4">
         <v>8693</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E46" s="4">
         <v>666</v>
       </c>
-      <c r="F46" s="10" t="s">
+      <c r="F46" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B47" s="11">
+      <c r="B47" s="10">
         <v>6</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="6">
         <v>0.91800000000000004</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="4">
         <v>4839</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E47" s="4">
         <v>666</v>
       </c>
-      <c r="F47" s="10" t="s">
+      <c r="F47" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B48" s="11">
+      <c r="B48" s="10">
         <v>7</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48" s="6">
         <v>1.087</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="4">
         <v>5406</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E48" s="4">
         <v>666</v>
       </c>
-      <c r="F48" s="10" t="s">
+      <c r="F48" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B49" s="11">
+      <c r="B49" s="10">
         <v>8</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49" s="6">
         <v>0.35199999999999998</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="4">
         <v>1527</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E49" s="4">
         <v>666</v>
       </c>
-      <c r="F49" s="10" t="s">
+      <c r="F49" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B50" s="11">
+      <c r="B50" s="10">
         <v>9</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50" s="6">
         <v>0.78600000000000003</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="4">
         <v>4710</v>
       </c>
-      <c r="E50" s="5">
+      <c r="E50" s="4">
         <v>666</v>
       </c>
-      <c r="F50" s="10" t="s">
+      <c r="F50" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B51" s="11">
+      <c r="B51" s="10">
         <v>10</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C51" s="6">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D51" s="4">
         <v>9</v>
       </c>
-      <c r="E51" s="5">
+      <c r="E51" s="4">
         <v>666</v>
       </c>
-      <c r="F51" s="10" t="s">
+      <c r="F51" s="9" t="s">
         <v>33</v>
       </c>
     </row>

--- a/Projeto2/docs/testes.xlsx
+++ b/Projeto2/docs/testes.xlsx
@@ -6627,7 +6627,7 @@
   <dimension ref="B2:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J8" sqref="B3:J8"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Projeto2/docs/testes.xlsx
+++ b/Projeto2/docs/testes.xlsx
@@ -311,7 +311,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="C00000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -429,25 +429,17 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-PT"/>
-                  <a:t>Número</a:t>
+                  <a:t>Número de Pessoas</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="pt-PT" baseline="0"/>
-                  <a:t> de Pessoas</a:t>
-                </a:r>
-                <a:endParaRPr lang="pt-PT"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -466,14 +458,11 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="pt-PT"/>
@@ -504,14 +493,11 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="pt-PT"/>
@@ -531,20 +517,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -554,14 +526,11 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
@@ -586,14 +555,11 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="pt-PT"/>
@@ -618,14 +584,11 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="pt-PT"/>
@@ -674,7 +637,13 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="pt-PT"/>
     </a:p>
@@ -716,7 +685,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="C00000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -834,25 +803,17 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-PT"/>
-                  <a:t>Número</a:t>
+                  <a:t>Número de Pessoas</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="pt-PT" baseline="0"/>
-                  <a:t> de Pessoas</a:t>
-                </a:r>
-                <a:endParaRPr lang="pt-PT"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -871,14 +832,11 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="pt-PT"/>
@@ -909,14 +867,11 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="pt-PT"/>
@@ -936,20 +891,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -959,14 +900,11 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
@@ -991,14 +929,11 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="pt-PT"/>
@@ -1023,14 +958,11 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="pt-PT"/>
@@ -1079,7 +1011,13 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="pt-PT"/>
     </a:p>
@@ -1121,7 +1059,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="C00000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1239,25 +1177,17 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-PT"/>
-                  <a:t>Número</a:t>
+                  <a:t>Número de Pessoas</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="pt-PT" baseline="0"/>
-                  <a:t> de Pessoas</a:t>
-                </a:r>
-                <a:endParaRPr lang="pt-PT"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1276,14 +1206,11 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="pt-PT"/>
@@ -1314,14 +1241,11 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="pt-PT"/>
@@ -1341,20 +1265,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1364,23 +1274,16 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Restrições</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Criadas</a:t>
+                  <a:t>Restrições Criadas</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1400,14 +1303,11 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="pt-PT"/>
@@ -1432,14 +1332,11 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="pt-PT"/>
@@ -1488,7 +1385,13 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="pt-PT"/>
     </a:p>
@@ -1527,7 +1430,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="C00000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1663,23 +1566,16 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-PT"/>
-                  <a:t>Número</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="pt-PT" baseline="0"/>
-                  <a:t> de Grupos</a:t>
+                  <a:t>Número de Grupos</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1699,14 +1595,11 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="pt-PT"/>
@@ -1737,14 +1630,11 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="pt-PT"/>
@@ -1764,20 +1654,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1787,14 +1663,11 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
@@ -1819,14 +1692,11 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="pt-PT"/>
@@ -1851,14 +1721,11 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="pt-PT"/>
@@ -1907,7 +1774,13 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="pt-PT"/>
     </a:p>
@@ -1946,7 +1819,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="C00000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2082,23 +1955,16 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-PT"/>
-                  <a:t>Número</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="pt-PT" baseline="0"/>
-                  <a:t> de Grupos</a:t>
+                  <a:t>Número de Grupos</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2118,14 +1984,11 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="pt-PT"/>
@@ -2156,14 +2019,11 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="pt-PT"/>
@@ -2183,20 +2043,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -2206,14 +2052,11 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
@@ -2238,14 +2081,11 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="pt-PT"/>
@@ -2270,14 +2110,11 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="pt-PT"/>
@@ -2326,7 +2163,13 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="pt-PT"/>
     </a:p>
@@ -2365,7 +2208,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="C00000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2501,23 +2344,16 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-PT"/>
-                  <a:t>Número</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="pt-PT" baseline="0"/>
-                  <a:t> de Grupos</a:t>
+                  <a:t>Número de Grupos</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2537,14 +2373,11 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="pt-PT"/>
@@ -2575,14 +2408,11 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="pt-PT"/>
@@ -2602,20 +2432,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -2625,14 +2441,11 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
@@ -2657,14 +2470,11 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="pt-PT"/>
@@ -2689,14 +2499,11 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="pt-PT"/>
@@ -2745,7 +2552,13 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="pt-PT"/>
     </a:p>
@@ -6626,8 +6439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE9BDDA2-FA8F-4159-9813-1D1D857A19D4}">
   <dimension ref="B2:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
